--- a/projet_10/projet_10_tableur_052025.xlsx
+++ b/projet_10/projet_10_tableur_052025.xlsx
@@ -25,7 +25,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Vélocité moyenne de l’équipe </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">par sprint de 2 semaines </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">30 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacité réelle moyenne de l’équipe par sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 jours/homme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio points de pondération / jour.homme</t>
+  </si>
   <si>
     <t xml:space="preserve">Titre</t>
   </si>
@@ -141,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">Référencement d’éléments externes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -150,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,6 +208,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -262,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,19 +320,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,326 +467,700 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="17.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="n">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <f aca="false">B8*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="G8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">SUM(E8:H8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <f aca="false">B9*$B$3</f>
+        <v>3.99</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">SUM(E9:H9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <f aca="false">B10*$B$3</f>
+        <v>10.64</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">SUM(E10:H10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <f aca="false">B11*$B$3</f>
+        <v>6.65</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">SUM(E11:H11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">B12*$B$3</f>
+        <v>27.93</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">SUM(E12:H12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <f aca="false">B13*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">SUM(E13:H13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">B14*$B$3</f>
+        <v>3.99</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">SUM(E14:H14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <f aca="false">B15*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">SUM(E15:H15)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <f aca="false">B16*$B$3</f>
+        <v>3.99</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">SUM(E16:H16)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <f aca="false">B17*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">SUM(E17:H17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <f aca="false">B18*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">SUM(E18:H18)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">B19*$B$3</f>
+        <v>2.66</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">SUM(E19:H19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">B20*$B$3</f>
+        <v>3.99</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(E20:H20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">B21*$B$3</f>
+        <v>17.29</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="H21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(E21:H21)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">B22*$B$3</f>
+        <v>17.29</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">SUM(E22:H22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">B23*$B$3</f>
+        <v>6.65</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(E23:H23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">B24*$B$3</f>
+        <v>3.99</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM(E24:H24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <f aca="false">B25*$B$3</f>
+        <v>6.65</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">SUM(E25:H25)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">B26*$B$3</f>
+        <v>27.93</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
+      <c r="F26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">SUM(E26:H26)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <f aca="false">SUM(B8:B26)</f>
+        <v>118</v>
+      </c>
       <c r="C28" s="0"/>
+      <c r="D28" s="2" t="n">
+        <f aca="false">SUM(D8:D26)</f>
+        <v>156.94</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
@@ -743,67 +1170,87 @@
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
